--- a/output/3_Regression/h08/h08table_mape.xlsx
+++ b/output/3_Regression/h08/h08table_mape.xlsx
@@ -441,7 +441,7 @@
         <v>1.744465083036481</v>
       </c>
       <c r="G2">
-        <v>2.406749805483151</v>
+        <v>2.439395714791676</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>1.639913990121846</v>
       </c>
       <c r="G3">
-        <v>3.066214728312799</v>
+        <v>2.615671201132442</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>1.564954314064636</v>
       </c>
       <c r="G4">
-        <v>3.747818322552081</v>
+        <v>2.842024900258238</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>1.545583435384228</v>
       </c>
       <c r="G5">
-        <v>3.715943567227574</v>
+        <v>2.725721730975413</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>1.544036223419679</v>
       </c>
       <c r="G6">
-        <v>3.488572514173192</v>
+        <v>2.593982459890655</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>1.538192262356247</v>
       </c>
       <c r="G7">
-        <v>3.270853980653361</v>
+        <v>2.421158493072746</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>1.527662082241362</v>
       </c>
       <c r="G8">
-        <v>3.066081481098749</v>
+        <v>2.384999392177101</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>1.517310392827591</v>
       </c>
       <c r="G9">
-        <v>2.891823498205519</v>
+        <v>2.328332924378258</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>1.509488391834103</v>
       </c>
       <c r="G10">
-        <v>2.750447430241856</v>
+        <v>2.267950726670571</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>1.509295663838499</v>
       </c>
       <c r="G11">
-        <v>2.626787204760418</v>
+        <v>2.212020236939623</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>1.509533683969664</v>
       </c>
       <c r="G12">
-        <v>2.515750409122041</v>
+        <v>2.160022732977119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>1.515635321470501</v>
       </c>
       <c r="G13">
-        <v>2.420990316598997</v>
+        <v>2.106899366171219</v>
       </c>
     </row>
   </sheetData>
